--- a/natmiOut/YoungD4/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/L1cam-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H2">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I2">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J2">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.688881933158761</v>
+        <v>0.2048153333333333</v>
       </c>
       <c r="N2">
-        <v>0.688881933158761</v>
+        <v>0.614446</v>
       </c>
       <c r="O2">
-        <v>0.2497464280889806</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="P2">
-        <v>0.2497464280889806</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="Q2">
-        <v>4.8444397127931</v>
+        <v>1.501544561245555</v>
       </c>
       <c r="R2">
-        <v>4.8444397127931</v>
+        <v>13.51390105121</v>
       </c>
       <c r="S2">
-        <v>0.08098081257785283</v>
+        <v>0.01997622734504188</v>
       </c>
       <c r="T2">
-        <v>0.08098081257785283</v>
+        <v>0.01997622734504188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H3">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I3">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J3">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.643020461985116</v>
+        <v>0.7041406666666666</v>
       </c>
       <c r="N3">
-        <v>0.643020461985116</v>
+        <v>2.112422</v>
       </c>
       <c r="O3">
-        <v>0.2331198654500038</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="P3">
-        <v>0.2331198654500038</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="Q3">
-        <v>4.521927070863326</v>
+        <v>5.16220427044111</v>
       </c>
       <c r="R3">
-        <v>4.521927070863326</v>
+        <v>46.45983843396999</v>
       </c>
       <c r="S3">
-        <v>0.07558961414036727</v>
+        <v>0.0686768603272998</v>
       </c>
       <c r="T3">
-        <v>0.07558961414036727</v>
+        <v>0.06867686032729982</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.03232220154138</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H4">
-        <v>7.03232220154138</v>
+        <v>21.993635</v>
       </c>
       <c r="I4">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J4">
-        <v>0.3242521352457568</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.42642307293178</v>
+        <v>0.7300083333333333</v>
       </c>
       <c r="N4">
-        <v>1.42642307293178</v>
+        <v>2.190025</v>
       </c>
       <c r="O4">
-        <v>0.5171337064610155</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="P4">
-        <v>0.5171337064610155</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="Q4">
-        <v>10.03106664456904</v>
+        <v>5.351845610097221</v>
       </c>
       <c r="R4">
-        <v>10.03106664456904</v>
+        <v>48.16661049087499</v>
       </c>
       <c r="S4">
-        <v>0.1676817085275367</v>
+        <v>0.07119980810571692</v>
       </c>
       <c r="T4">
-        <v>0.1676817085275367</v>
+        <v>0.07119980810571692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.24559775085746</v>
+        <v>7.331211666666666</v>
       </c>
       <c r="H5">
-        <v>7.24559775085746</v>
+        <v>21.993635</v>
       </c>
       <c r="I5">
-        <v>0.3340860208783424</v>
+        <v>0.3202318188366964</v>
       </c>
       <c r="J5">
-        <v>0.3340860208783424</v>
+        <v>0.3202318188366965</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.688881933158761</v>
+        <v>1.644357666666667</v>
       </c>
       <c r="N5">
-        <v>0.688881933158761</v>
+        <v>4.933073</v>
       </c>
       <c r="O5">
-        <v>0.2497464280889806</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="P5">
-        <v>0.2497464280889806</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="Q5">
-        <v>4.991361385501458</v>
+        <v>12.05513411003944</v>
       </c>
       <c r="R5">
-        <v>4.991361385501458</v>
+        <v>108.496206990355</v>
       </c>
       <c r="S5">
-        <v>0.08343679038882663</v>
+        <v>0.1603789230586379</v>
       </c>
       <c r="T5">
-        <v>0.08343679038882663</v>
+        <v>0.1603789230586379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H6">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I6">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J6">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.643020461985116</v>
+        <v>0.2048153333333333</v>
       </c>
       <c r="N6">
-        <v>0.643020461985116</v>
+        <v>0.614446</v>
       </c>
       <c r="O6">
-        <v>0.2331198654500038</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="P6">
-        <v>0.2331198654500038</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="Q6">
-        <v>4.659067613114681</v>
+        <v>0.03334694022488889</v>
       </c>
       <c r="R6">
-        <v>4.659067613114681</v>
+        <v>0.300122462024</v>
       </c>
       <c r="S6">
-        <v>0.07788208823588635</v>
+        <v>0.0004436405527927347</v>
       </c>
       <c r="T6">
-        <v>0.07788208823588635</v>
+        <v>0.0004436405527927347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>7.24559775085746</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H7">
-        <v>7.24559775085746</v>
+        <v>0.488444</v>
       </c>
       <c r="I7">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J7">
-        <v>0.3340860208783424</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.42642307293178</v>
+        <v>0.7041406666666666</v>
       </c>
       <c r="N7">
-        <v>1.42642307293178</v>
+        <v>2.112422</v>
       </c>
       <c r="O7">
-        <v>0.5171337064610155</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="P7">
-        <v>0.5171337064610155</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="Q7">
-        <v>10.33528780900569</v>
+        <v>0.1146444279297778</v>
       </c>
       <c r="R7">
-        <v>10.33528780900569</v>
+        <v>1.031799851368</v>
       </c>
       <c r="S7">
-        <v>0.1727671422536294</v>
+        <v>0.001525204922501789</v>
       </c>
       <c r="T7">
-        <v>0.1727671422536294</v>
+        <v>0.001525204922501789</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>6.07146335244669</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H8">
-        <v>6.07146335244669</v>
+        <v>0.488444</v>
       </c>
       <c r="I8">
-        <v>0.2799480597839635</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J8">
-        <v>0.2799480597839635</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.688881933158761</v>
+        <v>0.7300083333333333</v>
       </c>
       <c r="N8">
-        <v>0.688881933158761</v>
+        <v>2.190025</v>
       </c>
       <c r="O8">
-        <v>0.2497464280889806</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="P8">
-        <v>0.2497464280889806</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="Q8">
-        <v>4.182521411336047</v>
+        <v>0.1188560634555555</v>
       </c>
       <c r="R8">
-        <v>4.182521411336047</v>
+        <v>1.0697045711</v>
       </c>
       <c r="S8">
-        <v>0.0699160279814853</v>
+        <v>0.001581235619777667</v>
       </c>
       <c r="T8">
-        <v>0.0699160279814853</v>
+        <v>0.001581235619777667</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>6.07146335244669</v>
+        <v>0.1628146666666667</v>
       </c>
       <c r="H9">
-        <v>6.07146335244669</v>
+        <v>0.488444</v>
       </c>
       <c r="I9">
-        <v>0.2799480597839635</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="J9">
-        <v>0.2799480597839635</v>
+        <v>0.007111844427711535</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.643020461985116</v>
+        <v>1.644357666666667</v>
       </c>
       <c r="N9">
-        <v>0.643020461985116</v>
+        <v>4.933073</v>
       </c>
       <c r="O9">
-        <v>0.2331198654500038</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="P9">
-        <v>0.2331198654500038</v>
+        <v>0.5008213226319767</v>
       </c>
       <c r="Q9">
-        <v>3.904075169815972</v>
+        <v>0.2677255453791111</v>
       </c>
       <c r="R9">
-        <v>3.904075169815972</v>
+        <v>2.409529908412</v>
       </c>
       <c r="S9">
-        <v>0.06526145402982721</v>
+        <v>0.003561763332639344</v>
       </c>
       <c r="T9">
-        <v>0.06526145402982721</v>
+        <v>0.003561763332639344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,247 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.07146335244669</v>
+        <v>7.402569</v>
       </c>
       <c r="H10">
-        <v>6.07146335244669</v>
+        <v>22.207707</v>
       </c>
       <c r="I10">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J10">
-        <v>0.2799480597839635</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.42642307293178</v>
+        <v>0.2048153333333333</v>
       </c>
       <c r="N10">
-        <v>1.42642307293178</v>
+        <v>0.614446</v>
       </c>
       <c r="O10">
-        <v>0.5171337064610155</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="P10">
-        <v>0.5171337064610155</v>
+        <v>0.06238051989214988</v>
       </c>
       <c r="Q10">
-        <v>8.660475412389694</v>
+        <v>1.516159637258</v>
       </c>
       <c r="R10">
-        <v>8.660475412389694</v>
+        <v>13.645436735322</v>
       </c>
       <c r="S10">
-        <v>0.144770577772651</v>
+        <v>0.02017066318705744</v>
       </c>
       <c r="T10">
-        <v>0.144770577772651</v>
+        <v>0.02017066318705744</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.33843748995494</v>
+        <v>7.402569</v>
       </c>
       <c r="H11">
-        <v>1.33843748995494</v>
+        <v>22.207707</v>
       </c>
       <c r="I11">
-        <v>0.0617137840919371</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J11">
-        <v>0.0617137840919371</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.688881933158761</v>
+        <v>0.7041406666666666</v>
       </c>
       <c r="N11">
-        <v>0.688881933158761</v>
+        <v>2.112422</v>
       </c>
       <c r="O11">
-        <v>0.2497464280889806</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="P11">
-        <v>0.2497464280889806</v>
+        <v>0.2144598265618379</v>
       </c>
       <c r="Q11">
-        <v>0.9220254054923188</v>
+        <v>5.212449870705999</v>
       </c>
       <c r="R11">
-        <v>0.9220254054923188</v>
+        <v>46.912048836354</v>
       </c>
       <c r="S11">
-        <v>0.01541279714081585</v>
+        <v>0.0693453170350694</v>
       </c>
       <c r="T11">
-        <v>0.01541279714081585</v>
+        <v>0.0693453170350694</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.33843748995494</v>
+        <v>7.402569</v>
       </c>
       <c r="H12">
-        <v>1.33843748995494</v>
+        <v>22.207707</v>
       </c>
       <c r="I12">
-        <v>0.0617137840919371</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="J12">
-        <v>0.0617137840919371</v>
+        <v>0.3233487508909935</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.643020461985116</v>
+        <v>0.7300083333333333</v>
       </c>
       <c r="N12">
-        <v>0.643020461985116</v>
+        <v>2.190025</v>
       </c>
       <c r="O12">
-        <v>0.2331198654500038</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="P12">
-        <v>0.2331198654500038</v>
+        <v>0.2223383309140356</v>
       </c>
       <c r="Q12">
-        <v>0.8606426931290245</v>
+        <v>5.403937058074999</v>
       </c>
       <c r="R12">
-        <v>0.8606426931290245</v>
+        <v>48.63543352267499</v>
       </c>
       <c r="S12">
-        <v>0.01438670904392296</v>
+        <v>0.07189282157624179</v>
       </c>
       <c r="T12">
-        <v>0.01438670904392296</v>
+        <v>0.07189282157624179</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.402569</v>
+      </c>
+      <c r="H13">
+        <v>22.207707</v>
+      </c>
+      <c r="I13">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="J13">
+        <v>0.3233487508909935</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.644357666666667</v>
+      </c>
+      <c r="N13">
+        <v>4.933073</v>
+      </c>
+      <c r="O13">
+        <v>0.5008213226319767</v>
+      </c>
+      <c r="P13">
+        <v>0.5008213226319767</v>
+      </c>
+      <c r="Q13">
+        <v>12.172471088179</v>
+      </c>
+      <c r="R13">
+        <v>109.552239793611</v>
+      </c>
+      <c r="S13">
+        <v>0.1619399490926249</v>
+      </c>
+      <c r="T13">
+        <v>0.1619399490926249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="H14">
+        <v>19.145591</v>
+      </c>
+      <c r="I14">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="J14">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.2048153333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.614446</v>
+      </c>
+      <c r="O14">
+        <v>0.06238051989214988</v>
+      </c>
+      <c r="P14">
+        <v>0.06238051989214988</v>
+      </c>
+      <c r="Q14">
+        <v>1.307103534176222</v>
+      </c>
+      <c r="R14">
+        <v>11.763931807586</v>
+      </c>
+      <c r="S14">
+        <v>0.01738942555294692</v>
+      </c>
+      <c r="T14">
+        <v>0.01738942555294692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="H15">
+        <v>19.145591</v>
+      </c>
+      <c r="I15">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="J15">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7041406666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.112422</v>
+      </c>
+      <c r="O15">
+        <v>0.2144598265618379</v>
+      </c>
+      <c r="P15">
+        <v>0.2144598265618379</v>
+      </c>
+      <c r="Q15">
+        <v>4.493729736822444</v>
+      </c>
+      <c r="R15">
+        <v>40.443567631402</v>
+      </c>
+      <c r="S15">
+        <v>0.0597836182600379</v>
+      </c>
+      <c r="T15">
+        <v>0.05978361826003788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="H16">
+        <v>19.145591</v>
+      </c>
+      <c r="I16">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="J16">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.7300083333333333</v>
+      </c>
+      <c r="N16">
+        <v>2.190025</v>
+      </c>
+      <c r="O16">
+        <v>0.2223383309140356</v>
+      </c>
+      <c r="P16">
+        <v>0.2223383309140356</v>
+      </c>
+      <c r="Q16">
+        <v>4.658813658863888</v>
+      </c>
+      <c r="R16">
+        <v>41.929322929775</v>
+      </c>
+      <c r="S16">
+        <v>0.06197985941253191</v>
+      </c>
+      <c r="T16">
+        <v>0.0619798594125319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.381863666666667</v>
+      </c>
+      <c r="H17">
+        <v>19.145591</v>
+      </c>
+      <c r="I17">
+        <v>0.2787637163494569</v>
+      </c>
+      <c r="J17">
+        <v>0.2787637163494568</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.644357666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.933073</v>
+      </c>
+      <c r="O17">
+        <v>0.5008213226319767</v>
+      </c>
+      <c r="P17">
+        <v>0.5008213226319767</v>
+      </c>
+      <c r="Q17">
+        <v>10.49406644790478</v>
+      </c>
+      <c r="R17">
+        <v>94.446598031143</v>
+      </c>
+      <c r="S17">
+        <v>0.1396108131239402</v>
+      </c>
+      <c r="T17">
+        <v>0.1396108131239402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H18">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J18">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2048153333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.614446</v>
+      </c>
+      <c r="O18">
+        <v>0.06238051989214988</v>
+      </c>
+      <c r="P18">
+        <v>0.06238051989214988</v>
+      </c>
+      <c r="Q18">
+        <v>0.3307752613542222</v>
+      </c>
+      <c r="R18">
+        <v>2.976977352188</v>
+      </c>
+      <c r="S18">
+        <v>0.00440056325431091</v>
+      </c>
+      <c r="T18">
+        <v>0.00440056325431091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H19">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J19">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7041406666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.112422</v>
+      </c>
+      <c r="O19">
+        <v>0.2144598265618379</v>
+      </c>
+      <c r="P19">
+        <v>0.2144598265618379</v>
+      </c>
+      <c r="Q19">
+        <v>1.137182012968444</v>
+      </c>
+      <c r="R19">
+        <v>10.234638116716</v>
+      </c>
+      <c r="S19">
+        <v>0.01512882601692901</v>
+      </c>
+      <c r="T19">
+        <v>0.01512882601692901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.33843748995494</v>
-      </c>
-      <c r="H13">
-        <v>1.33843748995494</v>
-      </c>
-      <c r="I13">
-        <v>0.0617137840919371</v>
-      </c>
-      <c r="J13">
-        <v>0.0617137840919371</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.42642307293178</v>
-      </c>
-      <c r="N13">
-        <v>1.42642307293178</v>
-      </c>
-      <c r="O13">
-        <v>0.5171337064610155</v>
-      </c>
-      <c r="P13">
-        <v>0.5171337064610155</v>
-      </c>
-      <c r="Q13">
-        <v>1.909178117348624</v>
-      </c>
-      <c r="R13">
-        <v>1.909178117348624</v>
-      </c>
-      <c r="S13">
-        <v>0.03191427790719829</v>
-      </c>
-      <c r="T13">
-        <v>0.03191427790719829</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H20">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J20">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.7300083333333333</v>
+      </c>
+      <c r="N20">
+        <v>2.190025</v>
+      </c>
+      <c r="O20">
+        <v>0.2223383309140356</v>
+      </c>
+      <c r="P20">
+        <v>0.2223383309140356</v>
+      </c>
+      <c r="Q20">
+        <v>1.178958104938889</v>
+      </c>
+      <c r="R20">
+        <v>10.61062294445</v>
+      </c>
+      <c r="S20">
+        <v>0.01568460619976735</v>
+      </c>
+      <c r="T20">
+        <v>0.01568460619976735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.614992666666667</v>
+      </c>
+      <c r="H21">
+        <v>4.844977999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="J21">
+        <v>0.07054386949514166</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.644357666666667</v>
+      </c>
+      <c r="N21">
+        <v>4.933073</v>
+      </c>
+      <c r="O21">
+        <v>0.5008213226319767</v>
+      </c>
+      <c r="P21">
+        <v>0.5008213226319767</v>
+      </c>
+      <c r="Q21">
+        <v>2.655625573043778</v>
+      </c>
+      <c r="R21">
+        <v>23.900630157394</v>
+      </c>
+      <c r="S21">
+        <v>0.0353298740241344</v>
+      </c>
+      <c r="T21">
+        <v>0.0353298740241344</v>
       </c>
     </row>
   </sheetData>
